--- a/log/data_5o_proposed.xlsx
+++ b/log/data_5o_proposed.xlsx
@@ -536,18 +536,18 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.00813992</t>
+          <t>0.00769994</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.000445</t>
+          <t>0.000767</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -557,27 +557,27 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.000109</t>
+          <t>5.1e-05</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.00869392</t>
+          <t>0.00851794</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.061394</t>
+          <t>0.0656519</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.096251</t>
+          <t>0.103861</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -587,17 +587,17 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>12.0024</t>
+          <t>12.3694</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>33.9896</t>
+          <t>37.059</t>
         </is>
       </c>
     </row>
@@ -630,12 +630,12 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.00669996</t>
+          <t>0.00816793</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.000467</t>
+          <t>0.000738</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -645,22 +645,22 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>8.9e-05</t>
+          <t>9.5e-05</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.00725596</t>
+          <t>0.00900093</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.053835</t>
+          <t>0.0718499</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.08732</t>
+          <t>0.113699</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -680,12 +680,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>11.9082</t>
+          <t>12.296</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>36.5792</t>
+          <t>37.8239</t>
         </is>
       </c>
     </row>
@@ -718,12 +718,12 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.00793792</t>
+          <t>0.00766893</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.000422</t>
+          <t>0.001064</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -733,22 +733,22 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.000112</t>
+          <t>9.6e-05</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.00847192</t>
+          <t>0.00882893</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0640179</t>
+          <t>0.0788359</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.101465</t>
+          <t>0.119362</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>11.9212</t>
+          <t>12.3366</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>36.0809</t>
+          <t>43.1615</t>
         </is>
       </c>
     </row>
@@ -795,23 +795,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.00781193</t>
+          <t>0.00806093</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.000438</t>
+          <t>0.000978</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -821,27 +821,27 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.000153</t>
+          <t>9.1e-05</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.00840293</t>
+          <t>0.00912993</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.132493</t>
+          <t>0.0780169</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.17008</t>
+          <t>0.116835</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -851,17 +851,17 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.4515</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43.8949</t>
         </is>
       </c>
     </row>
@@ -888,18 +888,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.00684596</t>
+          <t>0.00789292</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.000454</t>
+          <t>0.001018</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -909,27 +909,27 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.000119</t>
+          <t>5.4e-05</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.00741896</t>
+          <t>0.00896492</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.049721</t>
+          <t>0.066265</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.085421</t>
+          <t>0.105017</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -939,17 +939,17 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>11.9264</t>
+          <t>12.3404</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>33.8942</t>
+          <t>32.8702</t>
         </is>
       </c>
     </row>
@@ -982,12 +982,12 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.00832891</t>
+          <t>0.00772594</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.000461</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -997,22 +997,22 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.000105</t>
+          <t>8.6e-05</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.00889491</t>
+          <t>0.00881194</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.0623719</t>
+          <t>0.069224</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.101055</t>
+          <t>0.108804</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>11.7977</t>
+          <t>12.185</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>33.3856</t>
+          <t>40.2433</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1070,12 +1070,12 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.00801392</t>
+          <t>0.00737194</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.00043</t>
+          <t>0.00078</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1085,22 +1085,22 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.00034</t>
+          <t>6e-05</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.00878392</t>
+          <t>0.00821194</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.114008</t>
+          <t>0.064507</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.144198</t>
+          <t>0.101691</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1120,12 +1120,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.1804</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35.1134</t>
         </is>
       </c>
     </row>
@@ -1158,12 +1158,12 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.00798592</t>
+          <t>0.00783393</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.000416</t>
+          <t>0.001048</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1173,22 +1173,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.000111</t>
+          <t>8.8e-05</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.00851292</t>
+          <t>0.00896993</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.0601179</t>
+          <t>0.0705039</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.093901</t>
+          <t>0.109949</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12.048</t>
+          <t>12.5355</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>37.1519</t>
+          <t>46.0218</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.00826692</t>
+          <t>0.00849292</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.000465</t>
+          <t>0.000889</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1261,22 +1261,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.000113</t>
+          <t>9.5e-05</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.00884492</t>
+          <t>0.00947692</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.0649419</t>
+          <t>0.075928</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.102948</t>
+          <t>0.112422</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1296,12 +1296,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>11.8124</t>
+          <t>12.3555</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>35.4288</t>
+          <t>43.2684</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1334,12 +1334,12 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.00816992</t>
+          <t>0.00805693</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.000459</t>
+          <t>0.000813</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1349,22 +1349,22 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.000154</t>
+          <t>6.2e-05</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.00878292</t>
+          <t>0.00893193</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.141863</t>
+          <t>0.0662419</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.179076</t>
+          <t>0.103772</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.3403</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35.311</t>
         </is>
       </c>
     </row>
@@ -1422,12 +1422,12 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.00759894</t>
+          <t>0.00794492</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.000422</t>
+          <t>0.000802</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1437,22 +1437,22 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>8.8e-05</t>
+          <t>9.3e-05</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.00810894</t>
+          <t>0.00883992</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.101346</t>
+          <t>0.078718</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.138061</t>
+          <t>0.116676</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1472,12 +1472,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>12.6047</t>
+          <t>12.5874</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>43.2024</t>
+          <t>42.9736</t>
         </is>
       </c>
     </row>
@@ -1499,23 +1499,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.00955888</t>
+          <t>0.00734895</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.000445</t>
+          <t>0.001033</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1525,27 +1525,27 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.000157</t>
+          <t>8.3e-05</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.0101609</t>
+          <t>0.00846495</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.150501</t>
+          <t>0.0751319</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.190134</t>
+          <t>0.112461</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1555,17 +1555,17 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.4089</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43.9007</t>
         </is>
       </c>
     </row>
@@ -1598,12 +1598,12 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0085659</t>
+          <t>0.00825391</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.000408</t>
+          <t>0.000927</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1613,22 +1613,22 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.00011</t>
+          <t>8.8e-05</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.0090839</t>
+          <t>0.00926891</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.0628709</t>
+          <t>0.0810569</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.100706</t>
+          <t>0.117464</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12.0142</t>
+          <t>12.3479</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>33.525</t>
+          <t>44.6512</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1686,12 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.00679896</t>
+          <t>0.00852891</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.000457</t>
+          <t>0.001078</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1701,22 +1701,22 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.000115</t>
+          <t>8.4e-05</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.00737096</t>
+          <t>0.00969091</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.04908</t>
+          <t>0.0684029</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.08581</t>
+          <t>0.108658</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1736,12 +1736,12 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12.021</t>
+          <t>12.3047</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>36.0154</t>
+          <t>40.5366</t>
         </is>
       </c>
     </row>
@@ -1774,12 +1774,12 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.00806993</t>
+          <t>0.00763193</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.000437</t>
+          <t>0.000947</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1789,22 +1789,22 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.000112</t>
+          <t>8.4e-05</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.00861892</t>
+          <t>0.00866293</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.0620869</t>
+          <t>0.0787649</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.100773</t>
+          <t>0.117694</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1824,12 +1824,12 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>11.8029</t>
+          <t>12.6195</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>34.3264</t>
+          <t>45.1611</t>
         </is>
       </c>
     </row>
@@ -1862,12 +1862,12 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.00844991</t>
+          <t>0.00731495</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.000453</t>
+          <t>0.000747</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1877,22 +1877,22 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.000108</t>
+          <t>9e-05</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.00901091</t>
+          <t>0.00815195</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.0612999</t>
+          <t>0.0685349</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.09898</t>
+          <t>0.105591</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>11.6404</t>
+          <t>12.3739</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>33.5427</t>
+          <t>42.1692</t>
         </is>
       </c>
     </row>
@@ -1950,12 +1950,12 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.00798892</t>
+          <t>0.00781093</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.000464</t>
+          <t>0.000671</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1965,22 +1965,22 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.000119</t>
+          <t>9.3e-05</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.00857192</t>
+          <t>0.00857493</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.0660419</t>
+          <t>0.076519</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.102097</t>
+          <t>0.114448</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2000,12 +2000,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>11.7632</t>
+          <t>12.4331</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>34.3256</t>
+          <t>44.158</t>
         </is>
       </c>
     </row>
@@ -2038,12 +2038,12 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0089229</t>
+          <t>0.00793093</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.000454</t>
+          <t>0.000781</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2053,22 +2053,22 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.000108</t>
+          <t>8.4e-05</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.0094849</t>
+          <t>0.00879592</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.0568109</t>
+          <t>0.0834171</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.092514</t>
+          <t>0.120584</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2088,12 +2088,12 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>11.7752</t>
+          <t>12.4057</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>36.2278</t>
+          <t>44.6948</t>
         </is>
       </c>
     </row>
@@ -2126,12 +2126,12 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.00719695</t>
+          <t>0.00800592</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.000435</t>
+          <t>0.001073</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2141,22 +2141,22 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.000118</t>
+          <t>8.2e-05</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.00774995</t>
+          <t>0.00916092</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.056861</t>
+          <t>0.079457</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.091013</t>
+          <t>0.11834</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>11.6701</t>
+          <t>12.2987</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>34.239</t>
+          <t>43.1687</t>
         </is>
       </c>
     </row>
@@ -2203,23 +2203,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.00806392</t>
+          <t>0.00758394</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.000463</t>
+          <t>0.000837</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2229,27 +2229,27 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.000167</t>
+          <t>8.7e-05</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.00869392</t>
+          <t>0.00850794</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.139406</t>
+          <t>0.0686559</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.17853</t>
+          <t>0.10932</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2259,17 +2259,17 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.4491</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40.0647</t>
         </is>
       </c>
     </row>
@@ -2291,23 +2291,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.00913189</t>
+          <t>0.00811292</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.000472</t>
+          <t>0.001146</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2317,27 +2317,27 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.000321</t>
+          <t>8.7e-05</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.00992489</t>
+          <t>0.00934592</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.113399</t>
+          <t>0.076145</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.141853</t>
+          <t>0.112019</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2347,17 +2347,17 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.4716</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43.6042</t>
         </is>
       </c>
     </row>
@@ -2390,12 +2390,12 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.00971087</t>
+          <t>0.00751094</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.000465</t>
+          <t>0.000873</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2405,22 +2405,22 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.000111</t>
+          <t>8.8e-05</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.0102869</t>
+          <t>0.00847194</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.0658119</t>
+          <t>0.0696559</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.102314</t>
+          <t>0.106585</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2440,12 +2440,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12.0248</t>
+          <t>12.4097</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>34.7312</t>
+          <t>43.7096</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2478,12 +2478,12 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0084689</t>
+          <t>0.00742294</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.000435</t>
+          <t>0.000883</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2493,22 +2493,22 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.00036</t>
+          <t>6.3e-05</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.0092639</t>
+          <t>0.00836894</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.103561</t>
+          <t>0.06383</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.134911</t>
+          <t>0.100715</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.4509</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35.2916</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.00700996</t>
+          <t>0.00786394</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.00043</t>
+          <t>0.000821</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2581,22 +2581,22 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.000111</t>
+          <t>0.000101</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.00755096</t>
+          <t>0.00878594</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.057779</t>
+          <t>0.0876209</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.094146</t>
+          <t>0.12441</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2616,12 +2616,12 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>11.8272</t>
+          <t>12.2379</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>38.0274</t>
+          <t>47.4587</t>
         </is>
       </c>
     </row>
@@ -2654,12 +2654,12 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.00631197</t>
+          <t>0.00762094</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.000449</t>
+          <t>0.000964</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2669,22 +2669,22 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.000119</t>
+          <t>8.3e-05</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.00687997</t>
+          <t>0.00866794</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.053275</t>
+          <t>0.08689</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.089989</t>
+          <t>0.124661</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2704,12 +2704,12 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11.831</t>
+          <t>12.5116</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>36.9922</t>
+          <t>44.1867</t>
         </is>
       </c>
     </row>
@@ -2742,12 +2742,12 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.00847591</t>
+          <t>0.00779194</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.000451</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2757,22 +2757,22 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.000122</t>
+          <t>8.8e-05</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.00904891</t>
+          <t>0.00877994</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.069107</t>
+          <t>0.074517</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.10705</t>
+          <t>0.108355</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2792,12 +2792,12 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>11.9439</t>
+          <t>12.4295</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>37.3049</t>
+          <t>43.9116</t>
         </is>
       </c>
     </row>
@@ -2824,18 +2824,18 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.00815192</t>
+          <t>0.00765893</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.000474</t>
+          <t>0.000983</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2845,27 +2845,27 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.000116</t>
+          <t>6.7e-05</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.00874192</t>
+          <t>0.00870893</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.0544799</t>
+          <t>0.0661769</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.092393</t>
+          <t>0.10496</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2875,17 +2875,17 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>11.7606</t>
+          <t>12.3115</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>37.2403</t>
+          <t>37.2514</t>
         </is>
       </c>
     </row>
@@ -2907,23 +2907,23 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.00960788</t>
+          <t>0.00780593</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.000414</t>
+          <t>0.000949</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2933,27 +2933,27 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.000441</t>
+          <t>9.4e-05</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.0104629</t>
+          <t>0.00884893</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.111112</t>
+          <t>0.0660109</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.143264</t>
+          <t>0.104436</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2963,17 +2963,17 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.4817</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39.9846</t>
         </is>
       </c>
     </row>
@@ -3006,12 +3006,12 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.00807192</t>
+          <t>0.00793493</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.000427</t>
+          <t>0.000976</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3021,22 +3021,22 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.000121</t>
+          <t>9.1e-05</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.00861992</t>
+          <t>0.00900193</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.066591</t>
+          <t>0.0721399</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.103995</t>
+          <t>0.111545</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>11.9243</t>
+          <t>12.5025</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>36.3731</t>
+          <t>43.6065</t>
         </is>
       </c>
     </row>
@@ -3088,18 +3088,18 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.00806092</t>
+          <t>0.00771493</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.00045</t>
+          <t>0.000708</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3109,27 +3109,27 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.000114</t>
+          <t>6.2e-05</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.00862492</t>
+          <t>0.00848493</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.0548269</t>
+          <t>0.0710099</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.09318</t>
+          <t>0.11026</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3139,17 +3139,17 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>11.6966</t>
+          <t>12.4795</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>33.0018</t>
+          <t>43.3874</t>
         </is>
       </c>
     </row>
@@ -3182,12 +3182,12 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.00765093</t>
+          <t>0.00825792</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.00043</t>
+          <t>0.001047</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3197,22 +3197,22 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>8.3e-05</t>
+          <t>9.2e-05</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.00816393</t>
+          <t>0.00939692</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.0545259</t>
+          <t>0.0794879</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.092367</t>
+          <t>0.114602</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3232,12 +3232,12 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>11.9366</t>
+          <t>12.5446</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>37.3217</t>
+          <t>45.2177</t>
         </is>
       </c>
     </row>
@@ -3270,12 +3270,12 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.00749893</t>
+          <t>0.00793394</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.000445</t>
+          <t>0.000877</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3285,22 +3285,22 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.000143</t>
+          <t>8.4e-05</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.00808693</t>
+          <t>0.00889494</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.0704259</t>
+          <t>0.0662319</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.108713</t>
+          <t>0.106702</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3320,12 +3320,12 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>11.9558</t>
+          <t>12.3857</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>42.2812</t>
+          <t>42.8784</t>
         </is>
       </c>
     </row>
@@ -3358,12 +3358,12 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.00862389</t>
+          <t>0.00781094</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.000455</t>
+          <t>0.000882</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3373,22 +3373,22 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>9e-05</t>
+          <t>0.000134</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.00916889</t>
+          <t>0.00882693</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.0580989</t>
+          <t>0.0735771</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.09747</t>
+          <t>0.112657</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3408,12 +3408,12 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>11.9247</t>
+          <t>12.4083</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>36.4329</t>
+          <t>42.2947</t>
         </is>
       </c>
     </row>
@@ -3440,18 +3440,18 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.00830191</t>
+          <t>0.00822993</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.000437</t>
+          <t>0.000938</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3461,27 +3461,27 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.000114</t>
+          <t>6.2e-05</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.00885291</t>
+          <t>0.00922993</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.058258</t>
+          <t>0.06835</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.09543</t>
+          <t>0.103288</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3491,17 +3491,17 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>11.9189</t>
+          <t>12.2893</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>36.8198</t>
+          <t>32.5168</t>
         </is>
       </c>
     </row>
@@ -3534,12 +3534,12 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.00885788</t>
+          <t>0.00776994</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.000447</t>
+          <t>0.000845</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3549,22 +3549,22 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.000117</t>
+          <t>9.9e-05</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.00942188</t>
+          <t>0.00871394</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.063592</t>
+          <t>0.068239</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.101908</t>
+          <t>0.107917</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>11.9382</t>
+          <t>12.4015</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>43.607</t>
+          <t>44.125</t>
         </is>
       </c>
     </row>
@@ -3616,18 +3616,18 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0086999</t>
+          <t>0.00803592</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.00044</t>
+          <t>0.000767</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3637,27 +3637,27 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.000112</t>
+          <t>5.3e-05</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.0092519</t>
+          <t>0.00885592</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.061396</t>
+          <t>0.066911</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.095703</t>
+          <t>0.105938</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3667,17 +3667,17 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>11.9671</t>
+          <t>12.2198</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>36.2458</t>
+          <t>38.0684</t>
         </is>
       </c>
     </row>
@@ -3710,12 +3710,12 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.00728894</t>
+          <t>0.00792093</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.000449</t>
+          <t>0.000997</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3725,22 +3725,22 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0.00012</t>
+          <t>0.000102</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.00785794</t>
+          <t>0.00901993</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0.0580779</t>
+          <t>0.07594</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.095228</t>
+          <t>0.115182</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3760,12 +3760,12 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>12.0448</t>
+          <t>12.3325</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>37.4562</t>
+          <t>42.5442</t>
         </is>
       </c>
     </row>
@@ -3798,12 +3798,12 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.00777393</t>
+          <t>0.00819792</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.000494</t>
+          <t>0.001027</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3813,22 +3813,22 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0.000112</t>
+          <t>9.2e-05</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.00837993</t>
+          <t>0.00931692</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0.0585839</t>
+          <t>0.0809289</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.092981</t>
+          <t>0.120398</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3848,12 +3848,12 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>11.8506</t>
+          <t>12.3244</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>35.8593</t>
+          <t>41.9716</t>
         </is>
       </c>
     </row>
@@ -3886,12 +3886,12 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.00815092</t>
+          <t>0.00758293</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.000433</t>
+          <t>0.000735</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3901,22 +3901,22 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>8e-05</t>
+          <t>8.2e-05</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.00866392</t>
+          <t>0.00839993</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0.0618079</t>
+          <t>0.071114</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.098219</t>
+          <t>0.110199</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3936,12 +3936,12 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>11.9465</t>
+          <t>12.2505</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>36.6844</t>
+          <t>43.2073</t>
         </is>
       </c>
     </row>
@@ -3968,18 +3968,18 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.00830892</t>
+          <t>0.00775594</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.000459</t>
+          <t>0.00092</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3989,27 +3989,27 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.000113</t>
+          <t>5.8e-05</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.00888092</t>
+          <t>0.00873394</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.0630279</t>
+          <t>0.067772</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.100702</t>
+          <t>0.106935</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -4019,17 +4019,17 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>11.9429</t>
+          <t>12.3956</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>33.2771</t>
+          <t>35.7661</t>
         </is>
       </c>
     </row>
@@ -4062,12 +4062,12 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.00815392</t>
+          <t>0.00800393</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.000446</t>
+          <t>0.00094</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4077,22 +4077,22 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0.000106</t>
+          <t>9.1e-05</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.00870592</t>
+          <t>0.00903493</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0.058876</t>
+          <t>0.07875</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.094751</t>
+          <t>0.118061</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -4112,12 +4112,12 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>11.8297</t>
+          <t>12.3104</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>35.2777</t>
+          <t>45.5946</t>
         </is>
       </c>
     </row>
@@ -4150,12 +4150,12 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.00810592</t>
+          <t>0.00807693</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.000448</t>
+          <t>0.000809</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4165,22 +4165,22 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.000116</t>
+          <t>9.5e-05</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.00866992</t>
+          <t>0.00898093</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0.0659099</t>
+          <t>0.0772159</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.103073</t>
+          <t>0.116056</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4200,12 +4200,12 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>11.9253</t>
+          <t>12.3237</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>36.4235</t>
+          <t>42.7879</t>
         </is>
       </c>
     </row>
@@ -4232,18 +4232,18 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.00818492</t>
+          <t>0.00794192</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.000446</t>
+          <t>0.001061</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4253,27 +4253,27 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0.000106</t>
+          <t>5.9e-05</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.00873692</t>
+          <t>0.00906192</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0.0608329</t>
+          <t>0.066853</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>0.10023</t>
+          <t>0.105889</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -4283,17 +4283,17 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>11.9015</t>
+          <t>12.2608</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>34.5821</t>
+          <t>37.0383</t>
         </is>
       </c>
     </row>
@@ -4315,23 +4315,23 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.00831791</t>
+          <t>0.00727395</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.000464</t>
+          <t>0.00075</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4341,27 +4341,27 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0.000149</t>
+          <t>8e-05</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.00893092</t>
+          <t>0.00810395</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0.143858</t>
+          <t>0.07265</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>0.179608</t>
+          <t>0.110895</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -4371,17 +4371,17 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.4894</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43.4871</t>
         </is>
       </c>
     </row>
@@ -4414,12 +4414,12 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.00821791</t>
+          <t>0.00751694</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.000438</t>
+          <t>0.000771</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4429,22 +4429,22 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0.000111</t>
+          <t>8.8e-05</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0.00876691</t>
+          <t>0.00837594</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0.0620909</t>
+          <t>0.0825159</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>0.100043</t>
+          <t>0.120778</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>11.9923</t>
+          <t>12.4689</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>36.966</t>
+          <t>43.823</t>
         </is>
       </c>
     </row>
@@ -4491,23 +4491,23 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.00697495</t>
+          <t>0.00726095</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.000538</t>
+          <t>0.00082</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4517,27 +4517,27 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.000315</t>
+          <t>8.6e-05</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.00782795</t>
+          <t>0.00816695</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0.108043</t>
+          <t>0.0752879</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>0.13707</t>
+          <t>0.112417</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4547,17 +4547,17 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.3374</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43.6199</t>
         </is>
       </c>
     </row>
@@ -4590,12 +4590,12 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.00904589</t>
+          <t>0.00752694</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.000453</t>
+          <t>0.000717</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4605,22 +4605,22 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.000114</t>
+          <t>9.1e-05</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.00961289</t>
+          <t>0.00833494</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0.0663579</t>
+          <t>0.07259</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0.104812</t>
+          <t>0.111319</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4640,12 +4640,12 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>11.9169</t>
+          <t>12.4488</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>36.5246</t>
+          <t>39.6678</t>
         </is>
       </c>
     </row>
@@ -4672,18 +4672,18 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.00771993</t>
+          <t>0.00790592</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.000473</t>
+          <t>0.000869</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4693,27 +4693,27 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0.000123</t>
+          <t>5.9e-05</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.00831593</t>
+          <t>0.00883393</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0.0594189</t>
+          <t>0.0601289</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>0.098091</t>
+          <t>0.097708</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4723,17 +4723,17 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>11.7272</t>
+          <t>12.2729</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>32.3684</t>
+          <t>34.5626</t>
         </is>
       </c>
     </row>
@@ -4760,18 +4760,18 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.00716795</t>
+          <t>0.00737794</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.000438</t>
+          <t>0.00082</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4781,27 +4781,27 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0.000114</t>
+          <t>5.9e-05</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.00771995</t>
+          <t>0.00825694</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>0.05659</t>
+          <t>0.0639289</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>0.089582</t>
+          <t>0.102425</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4811,17 +4811,17 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>11.937</t>
+          <t>12.3254</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>37.7202</t>
+          <t>36.2438</t>
         </is>
       </c>
     </row>
@@ -4854,12 +4854,12 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.00910889</t>
+          <t>0.00742895</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.000451</t>
+          <t>0.000988</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4869,22 +4869,22 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0.000112</t>
+          <t>8.2e-05</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0.00967189</t>
+          <t>0.00849895</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0.066301</t>
+          <t>0.0638169</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>0.103191</t>
+          <t>0.102202</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>11.9492</t>
+          <t>12.4055</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>35.3145</t>
+          <t>44.2779</t>
         </is>
       </c>
     </row>
@@ -4936,18 +4936,18 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.00834491</t>
+          <t>0.00845892</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.000473</t>
+          <t>0.000808</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4957,27 +4957,27 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0.000115</t>
+          <t>5.6e-05</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.00893291</t>
+          <t>0.00932292</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0.0686069</t>
+          <t>0.0693629</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0.108167</t>
+          <t>0.103559</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4987,17 +4987,17 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>11.7574</t>
+          <t>12.4009</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>33.5439</t>
+          <t>37.2516</t>
         </is>
       </c>
     </row>
@@ -5030,12 +5030,12 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.00892588</t>
+          <t>0.0109089</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.000451</t>
+          <t>0.000958</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5045,22 +5045,22 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0.000103</t>
+          <t>8.4e-05</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.00947988</t>
+          <t>0.0119509</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>0.066405</t>
+          <t>0.0798979</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>0.105771</t>
+          <t>0.120966</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -5080,12 +5080,12 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>11.7216</t>
+          <t>12.3607</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>35.7564</t>
+          <t>43.0025</t>
         </is>
       </c>
     </row>
@@ -5112,18 +5112,18 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.00905088</t>
+          <t>0.00790793</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.000486</t>
+          <t>0.000981</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5133,27 +5133,27 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0.000114</t>
+          <t>6.6e-05</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.00965088</t>
+          <t>0.00895493</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0.0660009</t>
+          <t>0.067379</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0.104964</t>
+          <t>0.10525</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -5163,17 +5163,17 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>11.8188</t>
+          <t>12.4285</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>33.2844</t>
+          <t>36.2398</t>
         </is>
       </c>
     </row>
@@ -5206,12 +5206,12 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.00895688</t>
+          <t>0.00761094</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.000463</t>
+          <t>0.000906</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5221,22 +5221,22 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.000119</t>
+          <t>9e-05</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.00953888</t>
+          <t>0.00860694</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0.0662119</t>
+          <t>0.0663979</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0.102433</t>
+          <t>0.105034</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5256,12 +5256,12 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>11.8106</t>
+          <t>12.4062</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>34.7693</t>
+          <t>44.8763</t>
         </is>
       </c>
     </row>
@@ -5294,12 +5294,12 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.00840192</t>
+          <t>0.00789193</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.000455</t>
+          <t>0.000847</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -5309,22 +5309,22 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0.000113</t>
+          <t>9e-05</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.00896992</t>
+          <t>0.00882893</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0.0629489</t>
+          <t>0.0746389</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>0.100964</t>
+          <t>0.113714</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -5344,12 +5344,12 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>11.7715</t>
+          <t>12.2826</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>35.5716</t>
+          <t>42.5558</t>
         </is>
       </c>
     </row>
@@ -5371,23 +5371,23 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.00763493</t>
+          <t>0.00812692</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.000457</t>
+          <t>0.001046</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5397,27 +5397,27 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0.000156</t>
+          <t>0.000125</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.00824793</t>
+          <t>0.00929793</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>0.132871</t>
+          <t>0.072061</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>0.170426</t>
+          <t>0.110853</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -5427,17 +5427,17 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.397</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.0608</t>
         </is>
       </c>
     </row>
@@ -5464,18 +5464,18 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.00835391</t>
+          <t>0.00743495</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.000463</t>
+          <t>0.000887</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5485,27 +5485,27 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0.000109</t>
+          <t>6.4e-05</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0.00892591</t>
+          <t>0.00838595</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>0.0620179</t>
+          <t>0.0653279</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0.095829</t>
+          <t>0.10446</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -5515,17 +5515,17 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>11.823</t>
+          <t>12.2888</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>34.726</t>
+          <t>35.7122</t>
         </is>
       </c>
     </row>
@@ -5558,12 +5558,12 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.00828092</t>
+          <t>0.00743394</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.000446</t>
+          <t>0.000926</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -5573,22 +5573,22 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0.000117</t>
+          <t>9.9e-05</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.00884392</t>
+          <t>0.00845894</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>0.0582219</t>
+          <t>0.0784169</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>0.096312</t>
+          <t>0.117149</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -5608,12 +5608,12 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>11.88</t>
+          <t>12.2663</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>33.7515</t>
+          <t>45.4837</t>
         </is>
       </c>
     </row>
@@ -5646,12 +5646,12 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.00874189</t>
+          <t>0.00800492</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.000461</t>
+          <t>0.001051</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5661,22 +5661,22 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0.000108</t>
+          <t>0.000107</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.00931089</t>
+          <t>0.00916292</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>0.0628769</t>
+          <t>0.078484</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0.100221</t>
+          <t>0.114697</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5696,12 +5696,12 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>12.0798</t>
+          <t>12.5031</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>33.8064</t>
+          <t>44.5354</t>
         </is>
       </c>
     </row>
@@ -5723,23 +5723,23 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.0084809</t>
+          <t>0.00760794</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.000435</t>
+          <t>0.000757</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5749,27 +5749,27 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.00018</t>
+          <t>9.4e-05</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0.0090959</t>
+          <t>0.00845894</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>0.139707</t>
+          <t>0.0682</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>0.17785</t>
+          <t>0.107944</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -5779,17 +5779,17 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.4172</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.0555</t>
         </is>
       </c>
     </row>
@@ -5822,12 +5822,12 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.00838692</t>
+          <t>0.00759493</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.000443</t>
+          <t>0.000841</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5837,22 +5837,22 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0.000118</t>
+          <t>9.9e-05</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.00894792</t>
+          <t>0.00853493</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>0.0625129</t>
+          <t>0.0657369</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>0.099864</t>
+          <t>0.102693</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5872,12 +5872,12 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>11.853</t>
+          <t>12.4108</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>34.5062</t>
+          <t>44.1437</t>
         </is>
       </c>
     </row>
@@ -5910,12 +5910,12 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.00926588</t>
+          <t>0.00816792</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.000433</t>
+          <t>0.001029</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5925,22 +5925,22 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0.000121</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.00981988</t>
+          <t>0.00929692</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0.074882</t>
+          <t>0.076031</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>0.113319</t>
+          <t>0.111847</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5960,12 +5960,12 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>11.8587</t>
+          <t>12.4097</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>34.3262</t>
+          <t>42.9953</t>
         </is>
       </c>
     </row>
@@ -5998,12 +5998,12 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.00812492</t>
+          <t>0.00768994</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.000436</t>
+          <t>0.000783</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -6013,22 +6013,22 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>8.1e-05</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.00866092</t>
+          <t>0.00855394</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>0.0722709</t>
+          <t>0.0751629</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>0.110589</t>
+          <t>0.113278</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -6048,12 +6048,12 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>12.677</t>
+          <t>12.3508</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>42.4806</t>
+          <t>42.7238</t>
         </is>
       </c>
     </row>
@@ -6075,23 +6075,23 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.00783693</t>
+          <t>0.00776393</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.000416</t>
+          <t>0.000785</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6101,27 +6101,27 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0.000441</t>
+          <t>0.00022</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.00869393</t>
+          <t>0.00876893</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>0.116949</t>
+          <t>0.0921329</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>0.147329</t>
+          <t>0.141084</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -6131,17 +6131,17 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.3643</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43.3884</t>
         </is>
       </c>
     </row>
@@ -6174,12 +6174,12 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.00694495</t>
+          <t>0.00735995</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.000434</t>
+          <t>0.000881</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6189,22 +6189,22 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0.000158</t>
+          <t>9.1e-05</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.00753695</t>
+          <t>0.00833195</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0.062022</t>
+          <t>0.07055</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0.099024</t>
+          <t>0.108425</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -6224,12 +6224,12 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>11.9035</t>
+          <t>12.4266</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>38.2321</t>
+          <t>43.2405</t>
         </is>
       </c>
     </row>
@@ -6262,12 +6262,12 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.00867991</t>
+          <t>0.00741994</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.000431</t>
+          <t>0.000921</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0.000108</t>
+          <t>8.9e-05</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.00921891</t>
+          <t>0.00842994</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>0.0613039</t>
+          <t>0.0735459</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>0.099154</t>
+          <t>0.111428</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>11.8827</t>
+          <t>12.5932</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>35.5785</t>
+          <t>43.4674</t>
         </is>
       </c>
     </row>
@@ -6350,12 +6350,12 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.00767093</t>
+          <t>0.00773093</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.000461</t>
+          <t>0.001071</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6365,22 +6365,22 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.000113</t>
+          <t>9e-05</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.00824493</t>
+          <t>0.00889193</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0.0676639</t>
+          <t>0.074829</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0.108261</t>
+          <t>0.112673</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -6400,12 +6400,12 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>11.6432</t>
+          <t>12.2432</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>35.6534</t>
+          <t>42.5038</t>
         </is>
       </c>
     </row>
@@ -6438,12 +6438,12 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.00732194</t>
+          <t>0.00730895</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.000443</t>
+          <t>0.000802</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6453,22 +6453,22 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0.000111</t>
+          <t>9.5e-05</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0.00787594</t>
+          <t>0.00820595</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>0.057545</t>
+          <t>0.0793859</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>0.092944</t>
+          <t>0.117969</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -6488,12 +6488,12 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>11.9516</t>
+          <t>12.3318</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>34.5692</t>
+          <t>44.6923</t>
         </is>
       </c>
     </row>
@@ -6526,12 +6526,12 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.00835992</t>
+          <t>0.00730995</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.000455</t>
+          <t>0.000898</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6541,22 +6541,22 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.000121</t>
+          <t>8.6e-05</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.00893592</t>
+          <t>0.00829395</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0.0647048</t>
+          <t>0.0636349</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0.102951</t>
+          <t>0.101094</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -6576,12 +6576,12 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>11.8185</t>
+          <t>12.2723</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>33.532</t>
+          <t>40.4695</t>
         </is>
       </c>
     </row>
@@ -6608,18 +6608,18 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.00845491</t>
+          <t>0.0126659</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.00043</t>
+          <t>0.001056</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -6629,27 +6629,27 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0.000106</t>
+          <t>8e-05</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.00899091</t>
+          <t>0.0138019</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>0.0618719</t>
+          <t>0.087603</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>0.099919</t>
+          <t>0.134441</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -6659,17 +6659,17 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>11.8809</t>
+          <t>12.206</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>37.4081</t>
+          <t>35.173</t>
         </is>
       </c>
     </row>
@@ -6696,18 +6696,18 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.00928588</t>
+          <t>0.00730795</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.000434</t>
+          <t>0.000855</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6717,27 +6717,27 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>8.3e-05</t>
+          <t>5.6e-05</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0.00980288</t>
+          <t>0.00821895</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>0.06293</t>
+          <t>0.0639469</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>0.102843</t>
+          <t>0.101832</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -6747,17 +6747,17 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>11.9264</t>
+          <t>12.3219</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>37.0231</t>
+          <t>34.173</t>
         </is>
       </c>
     </row>
@@ -6779,23 +6779,23 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.00879689</t>
+          <t>0.00747995</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.000456</t>
+          <t>0.001538</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6805,27 +6805,27 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>0.000151</t>
+          <t>8.6e-05</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.00940389</t>
+          <t>0.00910395</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>0.136674</t>
+          <t>0.0721689</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.172784</t>
+          <t>0.109558</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -6835,17 +6835,17 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.3927</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43.4156</t>
         </is>
       </c>
     </row>
@@ -6872,18 +6872,18 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.00689895</t>
+          <t>0.00725694</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.000435</t>
+          <t>0.000727</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6893,27 +6893,27 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>0.000108</t>
+          <t>5.4e-05</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0.00744195</t>
+          <t>0.00803794</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>0.057027</t>
+          <t>0.0645301</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>0.093237</t>
+          <t>0.102204</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -6923,17 +6923,17 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>11.7973</t>
+          <t>12.2257</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>33.0322</t>
+          <t>37.7409</t>
         </is>
       </c>
     </row>
@@ -6960,18 +6960,18 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.00843491</t>
+          <t>0.0125289</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.000435</t>
+          <t>0.001053</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6981,27 +6981,27 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>0.000106</t>
+          <t>5.9e-05</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.00897591</t>
+          <t>0.0136409</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>0.0620878</t>
+          <t>0.0814009</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>0.099144</t>
+          <t>0.12595</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -7011,17 +7011,17 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>11.9043</t>
+          <t>12.5705</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>35.813</t>
+          <t>38.2986</t>
         </is>
       </c>
     </row>
@@ -7054,12 +7054,12 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.00773593</t>
+          <t>0.00762094</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.000446</t>
+          <t>0.000845</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7069,22 +7069,22 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.000106</t>
+          <t>8.8e-05</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.00828793</t>
+          <t>0.00855394</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>0.056983</t>
+          <t>0.0757429</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>0.09043</t>
+          <t>0.109794</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -7104,12 +7104,12 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>11.6964</t>
+          <t>12.5115</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>35.1292</t>
+          <t>42.2639</t>
         </is>
       </c>
     </row>
@@ -7136,18 +7136,18 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.0087559</t>
+          <t>0.00711795</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.00045</t>
+          <t>0.000849</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7157,27 +7157,27 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>8.3e-05</t>
+          <t>7.3e-05</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.0092889</t>
+          <t>0.00803995</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>0.066026</t>
+          <t>0.0628499</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>0.102527</t>
+          <t>0.102242</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -7187,17 +7187,17 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>11.8424</t>
+          <t>12.2438</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>38.7005</t>
+          <t>33.4586</t>
         </is>
       </c>
     </row>
@@ -7230,12 +7230,12 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.00923789</t>
+          <t>0.00744694</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.000458</t>
+          <t>0.000847</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7245,22 +7245,22 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>0.000114</t>
+          <t>8.7e-05</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0.00980989</t>
+          <t>0.00838094</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0.0659119</t>
+          <t>0.101467</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>0.102519</t>
+          <t>0.143938</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -7280,12 +7280,12 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>11.9269</t>
+          <t>12.3943</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>37.1245</t>
+          <t>44.574</t>
         </is>
       </c>
     </row>
@@ -7307,23 +7307,23 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.00791493</t>
+          <t>0.00762893</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.000465</t>
+          <t>0.000869</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7333,27 +7333,27 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>0.000144</t>
+          <t>9.3e-05</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.00852393</t>
+          <t>0.00859093</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>0.143636</t>
+          <t>0.070495</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>0.181685</t>
+          <t>0.11109</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -7363,17 +7363,17 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.4367</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42.8706</t>
         </is>
       </c>
     </row>
@@ -7400,18 +7400,18 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.00696796</t>
+          <t>0.00788692</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.000426</t>
+          <t>0.000754</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -7421,27 +7421,27 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>8.2e-05</t>
+          <t>6.3e-05</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.00747596</t>
+          <t>0.00870392</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>0.062145</t>
+          <t>0.0619689</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>0.099012</t>
+          <t>0.100235</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -7451,17 +7451,17 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>11.9711</t>
+          <t>12.3625</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>40.9922</t>
+          <t>34.4322</t>
         </is>
       </c>
     </row>
@@ -7494,12 +7494,12 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.00895989</t>
+          <t>0.00766994</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.000476</t>
+          <t>0.000728</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7509,22 +7509,22 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0.000108</t>
+          <t>9.3e-05</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.00954389</t>
+          <t>0.00849094</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>0.0650639</t>
+          <t>0.074502</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>0.103398</t>
+          <t>0.113071</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -7544,12 +7544,12 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>12.0654</t>
+          <t>12.2592</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>33.6846</t>
+          <t>44.1431</t>
         </is>
       </c>
     </row>
@@ -7576,18 +7576,18 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.00817691</t>
+          <t>0.00809391</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.000447</t>
+          <t>0.000903</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -7597,27 +7597,27 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0.000112</t>
+          <t>5.6e-05</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.00873591</t>
+          <t>0.00905291</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>0.0623119</t>
+          <t>0.063533</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>0.099395</t>
+          <t>0.103634</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -7627,17 +7627,17 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11.9199</t>
+          <t>12.4361</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>33.8411</t>
+          <t>35.5875</t>
         </is>
       </c>
     </row>
@@ -7670,12 +7670,12 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.00752293</t>
+          <t>0.00757693</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.000433</t>
+          <t>0.000897</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -7685,22 +7685,22 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0.000114</t>
+          <t>8.5e-05</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.00806994</t>
+          <t>0.00855893</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>0.0596179</t>
+          <t>0.0777079</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0.097358</t>
+          <t>0.116744</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>11.8355</t>
+          <t>12.4648</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>35.6346</t>
+          <t>42.8007</t>
         </is>
       </c>
     </row>
@@ -7758,12 +7758,12 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.00923289</t>
+          <t>0.00767793</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.00046</t>
+          <t>0.000799</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -7773,22 +7773,22 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>0.00011</t>
+          <t>9.5e-05</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.00980289</t>
+          <t>0.00857193</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>0.0650949</t>
+          <t>0.0730269</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>0.100988</t>
+          <t>0.110451</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -7808,12 +7808,12 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>11.8445</t>
+          <t>12.493</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>36.3386</t>
+          <t>43.892</t>
         </is>
       </c>
     </row>
@@ -7846,12 +7846,12 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.00916789</t>
+          <t>0.00743394</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.000447</t>
+          <t>0.000788</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7861,22 +7861,22 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0.000118</t>
+          <t>8.6e-05</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0.00973289</t>
+          <t>0.00830794</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>0.069399</t>
+          <t>0.0642239</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>0.108009</t>
+          <t>0.103125</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -7896,12 +7896,12 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>11.9579</t>
+          <t>12.282</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>35.9384</t>
+          <t>43.6253</t>
         </is>
       </c>
     </row>
@@ -7934,12 +7934,12 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.00750895</t>
+          <t>0.00748894</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.000468</t>
+          <t>0.000995</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7949,22 +7949,22 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0.000115</t>
+          <t>9.5e-05</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>0.00809195</t>
+          <t>0.00857894</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>0.057221</t>
+          <t>0.0787291</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>0.091249</t>
+          <t>0.117978</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -7984,12 +7984,12 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>11.8909</t>
+          <t>12.3797</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>32.7201</t>
+          <t>43.6616</t>
         </is>
       </c>
     </row>
@@ -8011,23 +8011,23 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.00909088</t>
+          <t>0.00780393</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.00048</t>
+          <t>0.001124</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -8037,27 +8037,27 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0.000331</t>
+          <t>8.8e-05</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.00990188</t>
+          <t>0.00901593</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>0.145737</t>
+          <t>0.0707459</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>0.177119</t>
+          <t>0.105788</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -8067,17 +8067,17 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.3654</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42.4902</t>
         </is>
       </c>
     </row>
@@ -8104,18 +8104,18 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.00940488</t>
+          <t>0.00802493</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.000457</t>
+          <t>0.000991</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8125,27 +8125,27 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0.000109</t>
+          <t>5.6e-05</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.00997088</t>
+          <t>0.00907193</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>0.0678499</t>
+          <t>0.064752</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>0.108086</t>
+          <t>0.098998</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -8155,17 +8155,17 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>11.8055</t>
+          <t>12.3304</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>34.4754</t>
+          <t>34.3182</t>
         </is>
       </c>
     </row>
@@ -8192,18 +8192,18 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.0087719</t>
+          <t>0.00783793</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.000452</t>
+          <t>0.001012</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8213,27 +8213,27 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>6e-05</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.0093109</t>
+          <t>0.00890993</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>0.0631248</t>
+          <t>0.0628839</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>0.102028</t>
+          <t>0.09719</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -8243,17 +8243,17 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>11.7995</t>
+          <t>12.3666</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>36.3541</t>
+          <t>34.9883</t>
         </is>
       </c>
     </row>
@@ -8286,12 +8286,12 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.0087509</t>
+          <t>0.00753695</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.000455</t>
+          <t>0.000747</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8301,22 +8301,22 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0.000105</t>
+          <t>9.1e-05</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.0093109</t>
+          <t>0.00837495</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>0.0631519</t>
+          <t>0.066939</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>0.099051</t>
+          <t>0.105339</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -8336,12 +8336,12 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>11.7298</t>
+          <t>12.3519</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>35.5756</t>
+          <t>43.3434</t>
         </is>
       </c>
     </row>
@@ -8374,12 +8374,12 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.00824092</t>
+          <t>0.00712995</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.000461</t>
+          <t>0.000898</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -8389,22 +8389,22 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0.000107</t>
+          <t>9.3e-05</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.00880892</t>
+          <t>0.00812095</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>0.0587129</t>
+          <t>0.0759919</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>0.096675</t>
+          <t>0.114373</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -8424,12 +8424,12 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>11.7288</t>
+          <t>12.3391</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>36.3862</t>
+          <t>43.237</t>
         </is>
       </c>
     </row>
@@ -8462,12 +8462,12 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.00929388</t>
+          <t>0.00712995</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.000465</t>
+          <t>0.000835</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -8477,22 +8477,22 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0.000114</t>
+          <t>8e-05</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>0.00987288</t>
+          <t>0.00804495</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>0.0673109</t>
+          <t>0.072334</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>0.104827</t>
+          <t>0.109679</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -8512,12 +8512,12 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>12.0324</t>
+          <t>12.4446</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>37.4761</t>
+          <t>44.1177</t>
         </is>
       </c>
     </row>
@@ -8550,12 +8550,12 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.00798792</t>
+          <t>0.00733695</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.000452</t>
+          <t>0.000912</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -8565,22 +8565,22 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0.000111</t>
+          <t>8.7e-05</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.00855092</t>
+          <t>0.00833595</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>0.060286</t>
+          <t>0.0644559</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>0.095401</t>
+          <t>0.103277</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -8600,12 +8600,12 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>12.0403</t>
+          <t>12.4764</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>34.3493</t>
+          <t>39.9238</t>
         </is>
       </c>
     </row>
@@ -8632,18 +8632,18 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.00689096</t>
+          <t>0.00700995</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.000444</t>
+          <t>0.001079</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -8653,27 +8653,27 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0.00011</t>
+          <t>5.4e-05</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.00744496</t>
+          <t>0.00814295</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>0.0554569</t>
+          <t>0.056141</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>0.091507</t>
+          <t>0.093862</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -8683,17 +8683,17 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>11.7987</t>
+          <t>12.3259</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>36.0956</t>
+          <t>35.9473</t>
         </is>
       </c>
     </row>
@@ -8726,12 +8726,12 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.0086959</t>
+          <t>0.00718096</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.000449</t>
+          <t>0.000956</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -8741,22 +8741,22 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0.000117</t>
+          <t>0.000101</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.0092619</t>
+          <t>0.00823796</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>0.060834</t>
+          <t>0.0655619</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>0.09693</t>
+          <t>0.103184</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -8776,12 +8776,12 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>11.8763</t>
+          <t>12.4548</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>39.7564</t>
+          <t>43.1843</t>
         </is>
       </c>
     </row>
@@ -8814,12 +8814,12 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.00883289</t>
+          <t>0.00690196</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.000432</t>
+          <t>0.000959</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -8829,22 +8829,22 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>8.4e-05</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.00936489</t>
+          <t>0.00794496</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>0.0656009</t>
+          <t>0.0691039</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>0.101119</t>
+          <t>0.107134</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -8864,12 +8864,12 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>11.9221</t>
+          <t>12.4357</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>34.4842</t>
+          <t>43.4313</t>
         </is>
       </c>
     </row>
@@ -8902,12 +8902,12 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.00927988</t>
+          <t>0.00684895</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.000472</t>
+          <t>0.000836</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -8917,22 +8917,22 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0.000107</t>
+          <t>9.6e-05</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0.00985888</t>
+          <t>0.00778095</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>0.0659759</t>
+          <t>0.0679049</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>0.105472</t>
+          <t>0.104673</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -8952,12 +8952,12 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>11.7482</t>
+          <t>12.3076</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>35.1777</t>
+          <t>41.0695</t>
         </is>
       </c>
     </row>
@@ -8990,12 +8990,12 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.00791693</t>
+          <t>0.00764794</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.000466</t>
+          <t>0.000916</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -9005,22 +9005,22 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>8.2e-05</t>
+          <t>0.000108</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.00846493</t>
+          <t>0.00867194</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>0.0582279</t>
+          <t>0.0735759</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>0.093254</t>
+          <t>0.111054</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -9040,12 +9040,12 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>11.8041</t>
+          <t>12.5153</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>35.8599</t>
+          <t>48.6718</t>
         </is>
       </c>
     </row>
@@ -9078,12 +9078,12 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.00827192</t>
+          <t>0.00758393</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.00044</t>
+          <t>0.000753</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9093,22 +9093,22 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0.000111</t>
+          <t>9.3e-05</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>0.00882292</t>
+          <t>0.00842993</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>0.064789</t>
+          <t>0.0720969</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>0.102576</t>
+          <t>0.110055</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -9128,12 +9128,12 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>11.7732</t>
+          <t>12.3264</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>34.3664</t>
+          <t>43.5545</t>
         </is>
       </c>
     </row>
@@ -9166,12 +9166,12 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.00926488</t>
+          <t>0.00796792</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.000499</t>
+          <t>0.000799</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -9181,22 +9181,22 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0.000113</t>
+          <t>8e-05</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0.00987688</t>
+          <t>0.00884692</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>0.0686879</t>
+          <t>0.0839289</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>0.108163</t>
+          <t>0.122144</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -9216,12 +9216,12 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>11.8341</t>
+          <t>12.3659</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>37.1118</t>
+          <t>44.0118</t>
         </is>
       </c>
     </row>
@@ -9254,12 +9254,12 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.00828292</t>
+          <t>0.00748195</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.000426</t>
+          <t>0.000794</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -9269,22 +9269,22 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0.000113</t>
+          <t>9.2e-05</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0.00882192</t>
+          <t>0.00836795</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>0.0635129</t>
+          <t>0.0630358</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>0.101544</t>
+          <t>0.102264</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -9304,12 +9304,12 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>11.7704</t>
+          <t>12.301</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>32.696</t>
+          <t>44.9025</t>
         </is>
       </c>
     </row>
